--- a/Data/Tables/SpawnRuleDefine.xlsx
+++ b/Data/Tables/SpawnRuleDefine.xlsx
@@ -791,8 +791,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:H9" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:H9" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:H6" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:H6" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Key"/>
     <tableColumn id="2" name="Round"/>
@@ -1057,13 +1057,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="16.1851851851852" customWidth="1"/>
     <col min="3" max="3" width="12.5555555555556" customWidth="1"/>
@@ -1164,22 +1164,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
       </c>
       <c r="F4" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" s="4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4">
         <v>2</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1190,111 +1190,33 @@
         <v>2</v>
       </c>
       <c r="C5" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
